--- a/s1cDNASample/s1CDNASample_BrownH_01.06.20.xlsx
+++ b/s1cDNASample/s1CDNASample_BrownH_01.06.20.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s1cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5EBDD3-074D-CC4B-83D1-F4881823F808}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E815AD-6036-5B4F-8951-31341B9BCC61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="15420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11900" yWindow="1300" windowWidth="16380" windowHeight="15420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="17">
   <si>
     <t>rnaDate</t>
   </si>
@@ -63,9 +57,6 @@
     <t>s1PrimerSeq</t>
   </si>
   <si>
-    <t>12.13.19</t>
-  </si>
-  <si>
     <t>H.BROWN</t>
   </si>
   <si>
@@ -78,16 +69,13 @@
     <t>random</t>
   </si>
   <si>
-    <t>10.15.19</t>
-  </si>
-  <si>
-    <t>10.14.19</t>
-  </si>
-  <si>
     <t>False</t>
   </si>
   <si>
     <t>01.06.20</t>
+  </si>
+  <si>
+    <t>12.06.19</t>
   </si>
 </sst>
 </file>
@@ -465,7 +453,7 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D32"/>
+      <selection activeCell="A3" sqref="A3:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,34 +513,34 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -573,963 +561,848 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>7</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>9</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>11</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <v>12</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14">
         <v>13</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15">
         <v>14</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16">
         <v>15</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17">
         <v>16</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18">
         <v>17</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19">
         <v>18</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20">
         <v>19</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21">
         <v>20</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22">
         <v>21</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23">
         <v>22</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24">
         <v>23</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25">
         <v>24</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26">
         <v>25</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27">
         <v>26</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28">
-        <v>27</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28">
-        <v>27</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B28" s="3"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29">
-        <v>28</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29">
-        <v>28</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B29" s="3"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30">
-        <v>29</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30">
-        <v>29</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B30" s="3"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31">
-        <v>35</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31">
-        <v>35</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B31" s="3"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32">
-        <v>36</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32">
-        <v>36</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B32" s="3"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
